--- a/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
+++ b/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\codexa\900_Kaggle\001_Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6FB4B2-D09C-4D05-A422-F095C8A136FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF055D-BCA0-4E1D-B883-E4CD7BD8CAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1245" windowWidth="24255" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="1320" windowWidth="24255" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>決定木</t>
     <rPh sb="0" eb="2">
@@ -275,6 +275,17 @@
     <rPh sb="0" eb="2">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SVC_2.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C': 0.1, 
+'gamma': 0.5, 
+'kernel': 'poly', 
+'random_state': 42</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -631,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -847,7 +858,7 @@
         <v>-1.9139999999999935</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="75">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -865,6 +876,22 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.81564245810055802</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1">
+        <f>($H7-E7)*100</f>
+        <v>-1.4350000000000085</v>
       </c>
     </row>
     <row r="8" spans="1:16">

--- a/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
+++ b/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\codexa\900_Kaggle\001_Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF055D-BCA0-4E1D-B883-E4CD7BD8CAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF8AFF-7F09-437B-A7CD-BB6FA308DBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="1320" windowWidth="24255" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>決定木</t>
     <rPh sb="0" eb="2">
@@ -286,6 +286,17 @@
 'gamma': 0.5, 
 'kernel': 'poly', 
 'random_state': 42</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SVC_3.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{'C': 1000, 
+'gamma': 0.1, 
+'kernel': 'rbf', 
+'random_state': 42}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -893,6 +904,15 @@
         <f>($H7-E7)*100</f>
         <v>-1.4350000000000085</v>
       </c>
+      <c r="L7" s="1">
+        <v>0.82159952723332996</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">

--- a/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
+++ b/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\codexa\900_Kaggle\001_Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF8AFF-7F09-437B-A7CD-BB6FA308DBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBC1A3-7AC2-47D7-AA4E-3C0ABF275F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="1320" windowWidth="24255" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="795" windowWidth="24255" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>決定木</t>
     <rPh sb="0" eb="2">
@@ -299,12 +299,76 @@
 'random_state': 42}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>XGBoost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN_2.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{'activation': 'relu',
+ 'alpha': 0.001,
+ 'hidden_layer_sizes': 15,
+ 'learning_rate_init': 0.1,
+ 'random_state': 42,
+ 'solver': 'adam'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かなりマシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２日以上かかる</t>
+    <rPh sb="1" eb="4">
+      <t>ニチイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN_3.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XGB_2.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 1.0,
+ 'gamma': 0.0,
+ 'max_depth': 3,
+ 'min_child_weight': 3,
+ 'n_estimators': 50,
+ 'random_state': 42,
+ 'reg_alpha': 1,
+ 'reg_lambda': 1,
+ 'subsample': 1.0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XGB_3.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>colsample_bytree': 1.0,
+ 'gamma': 0.0,
+ 'max_depth': 3,
+ 'min_child_weight': 3,
+ 'n_estimators': 50,
+ 'random_state': 42,
+ 'reg_alpha': 1,
+ 'reg_lambda': 1,
+ 'subsample': 1.0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +397,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -370,6 +440,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P17"/>
+  <dimension ref="A2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -954,7 +1028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="168.75">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -973,8 +1047,36 @@
       <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="G10" s="1">
+        <v>0.81564245810055802</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="1">
+        <f>($H10-E10)*100</f>
+        <v>0.47800000000000065</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.83565448635871098</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="112.5">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -992,6 +1094,34 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.82681564245810002</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="1">
+        <f>($H11-E11)*100</f>
+        <v>0.47800000000000065</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.82681564245810002</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1017,10 +1147,24 @@
       <c r="F16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="6:6">
+      <c r="G16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
+++ b/900_Kaggle/001_Titanic/900_001_model_compare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\codexa\900_Kaggle\001_Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBC1A3-7AC2-47D7-AA4E-3C0ABF275F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175B9D53-8DE1-4169-ABF2-11C561E938AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="795" windowWidth="24255" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="1620" windowWidth="24255" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -981,6 +981,9 @@
       <c r="L7" s="1">
         <v>0.82159952723332996</v>
       </c>
+      <c r="M7" s="1">
+        <v>0.76075999999999999</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>50</v>
       </c>
@@ -1122,6 +1125,20 @@
       </c>
       <c r="O11" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="E13" s="1">
+        <f>MIN(E4:E11)</f>
+        <v>0.69377</v>
+      </c>
+      <c r="H13" s="1">
+        <f>MIN(H4:H11)</f>
+        <v>0.74641000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <f>MIN(M4:M11)</f>
+        <v>0.74641000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:16">
